--- a/SHSchool.CourseSelection/Resources/選課設定檢查報表樣板.xlsx
+++ b/SHSchool.CourseSelection/Resources/選課設定檢查報表樣板.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="科目分析表" sheetId="1" r:id="rId1"/>
     <sheet name="班級學生資料" sheetId="2" r:id="rId2"/>
-    <sheet name="黑名單資料" sheetId="3" r:id="rId3"/>
+    <sheet name="擋修名單資料" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -77,13 +77,15 @@
     <t>可選科目數</t>
   </si>
   <si>
-    <t>黑名單科目</t>
-  </si>
-  <si>
-    <t>黑名單原因</t>
-  </si>
-  <si>
     <t>可選學生數/人數上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擋修名單科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擋修名單原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,6 +438,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,9 +451,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -785,13 +787,13 @@
       <c r="D4" s="11"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="29"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -799,14 +801,14 @@
         <v>6</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="23"/>
@@ -878,14 +880,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="9" style="20"/>
-    <col min="5" max="5" width="11.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -903,10 +905,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/SHSchool.CourseSelection/Resources/選課設定檢查報表樣板.xlsx
+++ b/SHSchool.CourseSelection/Resources/選課設定檢查報表樣板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\小金\Documents\github_ischool\SHSchool.CourseSelection\SHSchool.CourseSelection\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Github_ischool\SHSchool.CourseSelection\SHSchool.CourseSelection\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="科目分析表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>年級</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>擋修名單原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擋修名單科目級別</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,13 +743,13 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="7" width="11.5" customWidth="1"/>
+    <col min="3" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +766,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -771,7 +775,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -780,7 +784,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -789,7 +793,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -806,7 +810,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28"/>
       <c r="B6" s="29"/>
       <c r="C6" s="12"/>
@@ -832,13 +836,13 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="9" style="15"/>
-    <col min="5" max="7" width="16.375" style="15" customWidth="1"/>
+    <col min="5" max="7" width="16.33203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -861,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -878,20 +882,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="9" style="20"/>
-    <col min="5" max="5" width="13.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -907,17 +912,21 @@
       <c r="E1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
